--- a/ORGANIZADOR.xlsx
+++ b/ORGANIZADOR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="23655" windowHeight="9975" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="23655" windowHeight="9975"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="250">
   <si>
     <t> 0901</t>
   </si>
@@ -745,6 +745,27 @@
   </si>
   <si>
     <t>A CURSAR 2019</t>
+  </si>
+  <si>
+    <t> QUIMICA GENERAL</t>
+  </si>
+  <si>
+    <t> 2019-07-20</t>
+  </si>
+  <si>
+    <t> 344413</t>
+  </si>
+  <si>
+    <t> MATEMATICA DISCRETA</t>
+  </si>
+  <si>
+    <t> 344411</t>
+  </si>
+  <si>
+    <t> 1029</t>
+  </si>
+  <si>
+    <t> 1028</t>
   </si>
 </sst>
 </file>
@@ -1194,10 +1215,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1840,54 +1861,68 @@
         <v>8</v>
       </c>
     </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="I23" s="9"/>
+    </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="I24" s="9"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B26" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C26" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D26" s="7" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="10">
+    <row r="27" spans="1:9">
+      <c r="A27" s="10">
         <v>1024</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B27" s="8" t="s">
         <v>130</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="11">
-        <v>1033</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="12">
-        <v>1112</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>134</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>131</v>
@@ -1898,10 +1933,10 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="11">
-        <v>1108</v>
+        <v>1033</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>131</v>
@@ -1912,10 +1947,10 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="12">
-        <v>1031</v>
+        <v>1112</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>69</v>
+        <v>134</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>131</v>
@@ -1926,10 +1961,10 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="11">
-        <v>1026</v>
+        <v>1108</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>131</v>
@@ -1940,10 +1975,10 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="12">
-        <v>1027</v>
+        <v>1031</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>137</v>
+        <v>69</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>131</v>
@@ -1954,10 +1989,10 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="11">
-        <v>1116</v>
+        <v>1026</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>131</v>
@@ -1968,10 +2003,10 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="12">
-        <v>1110</v>
+        <v>1027</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>131</v>
@@ -1982,10 +2017,10 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="11">
-        <v>1023</v>
+        <v>1116</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>131</v>
@@ -1996,15 +2031,43 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="12">
+        <v>1110</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="11">
+        <v>1023</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="12">
         <v>1030</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B37" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C37" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D37" s="8" t="s">
         <v>132</v>
       </c>
     </row>
@@ -2018,7 +2081,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:E83"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" workbookViewId="0">
+    <sheetView topLeftCell="A50" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -3129,7 +3192,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -3180,7 +3243,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="13" t="str">
-        <f>VLOOKUP(B2,Hoja1!A24:D35,4,FALSE)</f>
+        <f>VLOOKUP(B2,Hoja1!A26:D37,4,FALSE)</f>
         <v> EQ</v>
       </c>
     </row>
@@ -3201,7 +3264,7 @@
         <v>8</v>
       </c>
       <c r="F3" s="13" t="str">
-        <f>VLOOKUP(B3,Hoja1!A25:D36,4,FALSE)</f>
+        <f>VLOOKUP(B3,Hoja1!A27:D38,4,FALSE)</f>
         <v> EQ</v>
       </c>
     </row>
@@ -3242,7 +3305,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="13" t="str">
-        <f>VLOOKUP(B5,Hoja1!A27:D38,4,FALSE)</f>
+        <f>VLOOKUP(B5,Hoja1!A29:D40,4,FALSE)</f>
         <v> EQ</v>
       </c>
     </row>
@@ -3263,7 +3326,7 @@
         <v>8</v>
       </c>
       <c r="F6" s="13" t="str">
-        <f>VLOOKUP(B6,Hoja1!A28:D39,4,FALSE)</f>
+        <f>VLOOKUP(B6,Hoja1!A30:D41,4,FALSE)</f>
         <v> EQ</v>
       </c>
     </row>
@@ -3324,7 +3387,7 @@
         <v>8</v>
       </c>
       <c r="F9" s="13" t="str">
-        <f>VLOOKUP(B9,Hoja1!A31:D42,4,FALSE)</f>
+        <f>VLOOKUP(B9,Hoja1!A33:D44,4,FALSE)</f>
         <v> EQ</v>
       </c>
     </row>
